--- a/project/CV/CV_48.xlsx
+++ b/project/CV/CV_48.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K47"/>
+  <dimension ref="A1:K59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,1795 +498,2251 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>abbeville</t>
+          <t>albany</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>south carolina</t>
+          <t>new york</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>189661</v>
+        <v>1593599</v>
       </c>
       <c r="D2" t="n">
-        <v>3664</v>
+        <v>46360</v>
       </c>
       <c r="E2" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F2" t="n">
-        <v>45001</v>
+        <v>36001</v>
       </c>
       <c r="G2" t="n">
-        <v>0.117</v>
+        <v>0.006</v>
       </c>
       <c r="H2" t="n">
-        <v>0.102</v>
+        <v>0.012</v>
       </c>
       <c r="I2" t="n">
-        <v>0.243</v>
+        <v>0.052</v>
       </c>
       <c r="J2" t="n">
-        <v>0.166</v>
+        <v>0.142</v>
       </c>
       <c r="K2" t="n">
-        <v>0.371</v>
+        <v>0.7879999999999999</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>aiken</t>
+          <t>allegany</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>south carolina</t>
+          <t>new york</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1259120</v>
+        <v>184545</v>
       </c>
       <c r="D3" t="n">
-        <v>20629</v>
+        <v>6736</v>
       </c>
       <c r="E3" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F3" t="n">
-        <v>45003</v>
+        <v>36003</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1</v>
+        <v>0.062</v>
       </c>
       <c r="H3" t="n">
-        <v>0.08599999999999999</v>
+        <v>0.015</v>
       </c>
       <c r="I3" t="n">
-        <v>0.116</v>
+        <v>0.028</v>
       </c>
       <c r="J3" t="n">
-        <v>0.193</v>
+        <v>0.124</v>
       </c>
       <c r="K3" t="n">
-        <v>0.505</v>
+        <v>0.7709999999999999</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>allendale</t>
+          <t>broome</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>south carolina</t>
+          <t>new york</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>91822</v>
+        <v>1060994</v>
       </c>
       <c r="D4" t="n">
-        <v>1822</v>
+        <v>33563</v>
       </c>
       <c r="E4" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F4" t="n">
-        <v>45005</v>
+        <v>36007</v>
       </c>
       <c r="G4" t="n">
-        <v>0.172</v>
+        <v>0.044</v>
       </c>
       <c r="H4" t="n">
-        <v>0.211</v>
+        <v>0.028</v>
       </c>
       <c r="I4" t="n">
-        <v>0.012</v>
+        <v>0.051</v>
       </c>
       <c r="J4" t="n">
-        <v>0.22</v>
+        <v>0.066</v>
       </c>
       <c r="K4" t="n">
-        <v>0.384</v>
+        <v>0.8120000000000001</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>anderson</t>
+          <t>cattaraugus</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>south carolina</t>
+          <t>new york</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1619610</v>
+        <v>263470</v>
       </c>
       <c r="D5" t="n">
-        <v>43508</v>
+        <v>5452</v>
       </c>
       <c r="E5" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F5" t="n">
-        <v>45007</v>
+        <v>36009</v>
       </c>
       <c r="G5" t="n">
-        <v>0.06900000000000001</v>
+        <v>0.015</v>
       </c>
       <c r="H5" t="n">
-        <v>0.065</v>
+        <v>0.013</v>
       </c>
       <c r="I5" t="n">
-        <v>0.138</v>
+        <v>0.024</v>
       </c>
       <c r="J5" t="n">
-        <v>0.26</v>
+        <v>0.156</v>
       </c>
       <c r="K5" t="n">
-        <v>0.468</v>
+        <v>0.7929999999999999</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>bamberg</t>
+          <t>cayuga</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>south carolina</t>
+          <t>new york</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>161645</v>
+        <v>293258</v>
       </c>
       <c r="D6" t="n">
-        <v>7015</v>
+        <v>3734</v>
       </c>
       <c r="E6" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F6" t="n">
-        <v>45009</v>
+        <v>36011</v>
       </c>
       <c r="G6" t="n">
-        <v>0.167</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.031</v>
+        <v>0.033</v>
       </c>
       <c r="I6" t="n">
-        <v>0.053</v>
+        <v>0.07200000000000001</v>
       </c>
       <c r="J6" t="n">
-        <v>0.235</v>
+        <v>0.162</v>
       </c>
       <c r="K6" t="n">
-        <v>0.515</v>
+        <v>0.732</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>barnwell</t>
+          <t>chautauqua</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>south carolina</t>
+          <t>new york</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>212465</v>
+        <v>417253</v>
       </c>
       <c r="D7" t="n">
-        <v>4733</v>
+        <v>4305</v>
       </c>
       <c r="E7" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F7" t="n">
-        <v>45011</v>
+        <v>36013</v>
       </c>
       <c r="G7" t="n">
-        <v>0.169</v>
+        <v>0.029</v>
       </c>
       <c r="H7" t="n">
-        <v>0.067</v>
+        <v>0.024</v>
       </c>
       <c r="I7" t="n">
-        <v>0.035</v>
+        <v>0.038</v>
       </c>
       <c r="J7" t="n">
-        <v>0.281</v>
+        <v>0.206</v>
       </c>
       <c r="K7" t="n">
-        <v>0.447</v>
+        <v>0.703</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>beaufort</t>
+          <t>chemung</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>south carolina</t>
+          <t>new york</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1567248</v>
+        <v>499955</v>
       </c>
       <c r="D8" t="n">
-        <v>20343</v>
+        <v>8808</v>
       </c>
       <c r="E8" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F8" t="n">
-        <v>45013</v>
+        <v>36015</v>
       </c>
       <c r="G8" t="n">
-        <v>0.038</v>
+        <v>0.012</v>
       </c>
       <c r="H8" t="n">
-        <v>0.027</v>
+        <v>0.046</v>
       </c>
       <c r="I8" t="n">
-        <v>0.055</v>
+        <v>0.092</v>
       </c>
       <c r="J8" t="n">
-        <v>0.147</v>
+        <v>0.256</v>
       </c>
       <c r="K8" t="n">
-        <v>0.733</v>
+        <v>0.594</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>berkeley</t>
+          <t>chenango</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>south carolina</t>
+          <t>new york</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1527895</v>
+        <v>161285</v>
       </c>
       <c r="D9" t="n">
-        <v>21819</v>
+        <v>3269</v>
       </c>
       <c r="E9" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F9" t="n">
-        <v>45015</v>
+        <v>36017</v>
       </c>
       <c r="G9" t="n">
-        <v>0.05</v>
+        <v>0.048</v>
       </c>
       <c r="H9" t="n">
-        <v>0.07400000000000001</v>
+        <v>0.045</v>
       </c>
       <c r="I9" t="n">
-        <v>0.107</v>
+        <v>0.015</v>
       </c>
       <c r="J9" t="n">
-        <v>0.171</v>
+        <v>0.156</v>
       </c>
       <c r="K9" t="n">
-        <v>0.597</v>
+        <v>0.735</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>calhoun</t>
+          <t>clinton</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>south carolina</t>
+          <t>new york</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>128994</v>
+        <v>155705</v>
       </c>
       <c r="D10" t="n">
-        <v>3857</v>
+        <v>1912</v>
       </c>
       <c r="E10" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F10" t="n">
-        <v>45017</v>
+        <v>36019</v>
       </c>
       <c r="G10" t="n">
-        <v>0.06</v>
+        <v>0.017</v>
       </c>
       <c r="H10" t="n">
-        <v>0.047</v>
+        <v>0.024</v>
       </c>
       <c r="I10" t="n">
-        <v>0.129</v>
+        <v>0.102</v>
       </c>
       <c r="J10" t="n">
-        <v>0.173</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="K10" t="n">
-        <v>0.5920000000000001</v>
+        <v>0.773</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>charleston</t>
+          <t>columbia</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>south carolina</t>
+          <t>new york</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4237129</v>
+        <v>271835</v>
       </c>
       <c r="D11" t="n">
-        <v>59925</v>
+        <v>14772</v>
       </c>
       <c r="E11" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F11" t="n">
-        <v>45019</v>
+        <v>36021</v>
       </c>
       <c r="G11" t="n">
-        <v>0.036</v>
+        <v>0.014</v>
       </c>
       <c r="H11" t="n">
-        <v>0.059</v>
+        <v>0.004</v>
       </c>
       <c r="I11" t="n">
-        <v>0.062</v>
+        <v>0.029</v>
       </c>
       <c r="J11" t="n">
-        <v>0.1860000000000001</v>
+        <v>0.104</v>
       </c>
       <c r="K11" t="n">
-        <v>0.657</v>
+        <v>0.848</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>cherokee</t>
+          <t>cortland</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>south carolina</t>
+          <t>new york</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>418376</v>
+        <v>209467</v>
       </c>
       <c r="D12" t="n">
-        <v>12406</v>
+        <v>2830</v>
       </c>
       <c r="E12" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F12" t="n">
-        <v>45021</v>
+        <v>36023</v>
       </c>
       <c r="G12" t="n">
-        <v>0.08800000000000001</v>
+        <v>0.001</v>
       </c>
       <c r="H12" t="n">
-        <v>0.083</v>
+        <v>0.062</v>
       </c>
       <c r="I12" t="n">
-        <v>0.121</v>
+        <v>0.015</v>
       </c>
       <c r="J12" t="n">
-        <v>0.179</v>
+        <v>0.118</v>
       </c>
       <c r="K12" t="n">
-        <v>0.528</v>
+        <v>0.8029999999999999</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>chester</t>
+          <t>delaware</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>south carolina</t>
+          <t>new york</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>330555</v>
+        <v>91464</v>
       </c>
       <c r="D13" t="n">
-        <v>6315</v>
+        <v>1770</v>
       </c>
       <c r="E13" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F13" t="n">
-        <v>45023</v>
+        <v>36025</v>
       </c>
       <c r="G13" t="n">
-        <v>0.151</v>
+        <v>0.057</v>
       </c>
       <c r="H13" t="n">
-        <v>0.065</v>
+        <v>0.053</v>
       </c>
       <c r="I13" t="n">
-        <v>0.055</v>
+        <v>0.034</v>
       </c>
       <c r="J13" t="n">
-        <v>0.23</v>
+        <v>0.112</v>
       </c>
       <c r="K13" t="n">
-        <v>0.5</v>
+        <v>0.7440000000000001</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>chesterfield</t>
+          <t>dutchess</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>south carolina</t>
+          <t>new york</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>376580</v>
+        <v>2106262</v>
       </c>
       <c r="D14" t="n">
-        <v>10219</v>
+        <v>54585</v>
       </c>
       <c r="E14" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F14" t="n">
-        <v>45025</v>
+        <v>36027</v>
       </c>
       <c r="G14" t="n">
-        <v>0.117</v>
+        <v>0.006999999999999999</v>
       </c>
       <c r="H14" t="n">
-        <v>0.079</v>
+        <v>0.009000000000000001</v>
       </c>
       <c r="I14" t="n">
-        <v>0.148</v>
+        <v>0.031</v>
       </c>
       <c r="J14" t="n">
-        <v>0.129</v>
+        <v>0.099</v>
       </c>
       <c r="K14" t="n">
-        <v>0.526</v>
+        <v>0.8540000000000001</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>clarendon</t>
+          <t>erie</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>south carolina</t>
+          <t>new york</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>320198</v>
+        <v>5528205</v>
       </c>
       <c r="D15" t="n">
-        <v>17499</v>
+        <v>221447</v>
       </c>
       <c r="E15" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F15" t="n">
-        <v>45027</v>
+        <v>36029</v>
       </c>
       <c r="G15" t="n">
-        <v>0.083</v>
+        <v>0.018</v>
       </c>
       <c r="H15" t="n">
-        <v>0.147</v>
+        <v>0.014</v>
       </c>
       <c r="I15" t="n">
-        <v>0.128</v>
+        <v>0.04</v>
       </c>
       <c r="J15" t="n">
-        <v>0.157</v>
+        <v>0.161</v>
       </c>
       <c r="K15" t="n">
-        <v>0.486</v>
+        <v>0.7659999999999999</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>colleton</t>
+          <t>essex</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>south carolina</t>
+          <t>new york</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>320310</v>
+        <v>81148</v>
       </c>
       <c r="D16" t="n">
-        <v>11460</v>
+        <v>2515</v>
       </c>
       <c r="E16" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F16" t="n">
-        <v>45029</v>
+        <v>36031</v>
       </c>
       <c r="G16" t="n">
-        <v>0.08800000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="H16" t="n">
-        <v>0.077</v>
+        <v>0.05</v>
       </c>
       <c r="I16" t="n">
-        <v>0.094</v>
+        <v>0.057</v>
       </c>
       <c r="J16" t="n">
-        <v>0.1</v>
+        <v>0.107</v>
       </c>
       <c r="K16" t="n">
-        <v>0.6409999999999999</v>
+        <v>0.736</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>darlington</t>
+          <t>franklin</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>south carolina</t>
+          <t>new york</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>679922</v>
+        <v>84100</v>
       </c>
       <c r="D17" t="n">
-        <v>15645</v>
+        <v>884</v>
       </c>
       <c r="E17" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F17" t="n">
-        <v>45031</v>
+        <v>36033</v>
       </c>
       <c r="G17" t="n">
-        <v>0.153</v>
+        <v>0.026</v>
       </c>
       <c r="H17" t="n">
-        <v>0.083</v>
+        <v>0.027</v>
       </c>
       <c r="I17" t="n">
-        <v>0.114</v>
+        <v>0.117</v>
       </c>
       <c r="J17" t="n">
-        <v>0.103</v>
+        <v>0.097</v>
       </c>
       <c r="K17" t="n">
-        <v>0.5479999999999999</v>
+        <v>0.733</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>dillon</t>
+          <t>fulton</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>south carolina</t>
+          <t>new york</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>350968</v>
+        <v>185354</v>
       </c>
       <c r="D18" t="n">
-        <v>9915</v>
+        <v>8013</v>
       </c>
       <c r="E18" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F18" t="n">
-        <v>45033</v>
+        <v>36035</v>
       </c>
       <c r="G18" t="n">
-        <v>0.156</v>
+        <v>0.078</v>
       </c>
       <c r="H18" t="n">
-        <v>0.056</v>
+        <v>0.015</v>
       </c>
       <c r="I18" t="n">
-        <v>0.188</v>
+        <v>0.06</v>
       </c>
       <c r="J18" t="n">
-        <v>0.17</v>
+        <v>0.118</v>
       </c>
       <c r="K18" t="n">
-        <v>0.43</v>
+        <v>0.7290000000000001</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>dorchester</t>
+          <t>genesee</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>south carolina</t>
+          <t>new york</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1295116</v>
+        <v>285418</v>
       </c>
       <c r="D19" t="n">
-        <v>20963</v>
+        <v>6141</v>
       </c>
       <c r="E19" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F19" t="n">
-        <v>45035</v>
+        <v>36037</v>
       </c>
       <c r="G19" t="n">
-        <v>0.07099999999999999</v>
+        <v>0.001</v>
       </c>
       <c r="H19" t="n">
-        <v>0.07099999999999999</v>
+        <v>0.017</v>
       </c>
       <c r="I19" t="n">
-        <v>0.123</v>
+        <v>0.015</v>
       </c>
       <c r="J19" t="n">
-        <v>0.16</v>
+        <v>0.187</v>
       </c>
       <c r="K19" t="n">
-        <v>0.5760000000000001</v>
+        <v>0.7809999999999999</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>edgefield</t>
+          <t>greene</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>south carolina</t>
+          <t>new york</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>228846</v>
+        <v>192625</v>
       </c>
       <c r="D20" t="n">
-        <v>4281</v>
+        <v>5023</v>
       </c>
       <c r="E20" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F20" t="n">
-        <v>45037</v>
+        <v>36039</v>
       </c>
       <c r="G20" t="n">
-        <v>0.099</v>
+        <v>0.022</v>
       </c>
       <c r="H20" t="n">
-        <v>0.08400000000000001</v>
+        <v>0.014</v>
       </c>
       <c r="I20" t="n">
-        <v>0.083</v>
+        <v>0.03</v>
       </c>
       <c r="J20" t="n">
-        <v>0.165</v>
+        <v>0.146</v>
       </c>
       <c r="K20" t="n">
-        <v>0.569</v>
+        <v>0.7879999999999999</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>fairfield</t>
+          <t>hamilton</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>south carolina</t>
+          <t>new york</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>229402</v>
+        <v>12625</v>
       </c>
       <c r="D21" t="n">
-        <v>9670</v>
+        <v>191</v>
       </c>
       <c r="E21" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F21" t="n">
-        <v>45039</v>
+        <v>36041</v>
       </c>
       <c r="G21" t="n">
-        <v>0.046</v>
+        <v>0.042</v>
       </c>
       <c r="H21" t="n">
-        <v>0.032</v>
+        <v>0.024</v>
       </c>
       <c r="I21" t="n">
-        <v>0.046</v>
+        <v>0.053</v>
       </c>
       <c r="J21" t="n">
-        <v>0.31</v>
+        <v>0.229</v>
       </c>
       <c r="K21" t="n">
-        <v>0.5660000000000001</v>
+        <v>0.653</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>florence</t>
+          <t>herkimer</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>south carolina</t>
+          <t>new york</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1565446</v>
+        <v>256764</v>
       </c>
       <c r="D22" t="n">
-        <v>47193</v>
+        <v>4603</v>
       </c>
       <c r="E22" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F22" t="n">
-        <v>45041</v>
+        <v>36043</v>
       </c>
       <c r="G22" t="n">
-        <v>0.114</v>
+        <v>0.015</v>
       </c>
       <c r="H22" t="n">
-        <v>0.08</v>
+        <v>0.026</v>
       </c>
       <c r="I22" t="n">
-        <v>0.133</v>
+        <v>0.042</v>
       </c>
       <c r="J22" t="n">
-        <v>0.109</v>
+        <v>0.158</v>
       </c>
       <c r="K22" t="n">
-        <v>0.5639999999999999</v>
+        <v>0.758</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>georgetown</t>
+          <t>jefferson</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>south carolina</t>
+          <t>new york</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>601223</v>
+        <v>212135</v>
       </c>
       <c r="D23" t="n">
-        <v>12898</v>
+        <v>1658</v>
       </c>
       <c r="E23" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F23" t="n">
-        <v>45043</v>
+        <v>36045</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04</v>
+        <v>0.008</v>
       </c>
       <c r="H23" t="n">
-        <v>0.014</v>
+        <v>0.058</v>
       </c>
       <c r="I23" t="n">
-        <v>0.079</v>
+        <v>0.038</v>
       </c>
       <c r="J23" t="n">
-        <v>0.191</v>
+        <v>0.116</v>
       </c>
       <c r="K23" t="n">
-        <v>0.675</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>greenville</t>
+          <t>lewis</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>south carolina</t>
+          <t>new york</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5378034</v>
+        <v>98977</v>
       </c>
       <c r="D24" t="n">
-        <v>86648</v>
+        <v>1945</v>
       </c>
       <c r="E24" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F24" t="n">
-        <v>45045</v>
+        <v>36049</v>
       </c>
       <c r="G24" t="n">
-        <v>0.049</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="H24" t="n">
-        <v>0.079</v>
+        <v>0.036</v>
       </c>
       <c r="I24" t="n">
-        <v>0.153</v>
+        <v>0.02</v>
       </c>
       <c r="J24" t="n">
-        <v>0.206</v>
+        <v>0.11</v>
       </c>
       <c r="K24" t="n">
-        <v>0.513</v>
+        <v>0.765</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>greenwood</t>
+          <t>livingston</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>south carolina</t>
+          <t>new york</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>661424</v>
+        <v>203079</v>
       </c>
       <c r="D25" t="n">
-        <v>15694</v>
+        <v>3459</v>
       </c>
       <c r="E25" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F25" t="n">
-        <v>45047</v>
+        <v>36051</v>
       </c>
       <c r="G25" t="n">
-        <v>0.07400000000000001</v>
+        <v>0.011</v>
       </c>
       <c r="H25" t="n">
-        <v>0.08699999999999999</v>
+        <v>0.034</v>
       </c>
       <c r="I25" t="n">
-        <v>0.226</v>
+        <v>0.009000000000000001</v>
       </c>
       <c r="J25" t="n">
-        <v>0.151</v>
+        <v>0.111</v>
       </c>
       <c r="K25" t="n">
-        <v>0.463</v>
+        <v>0.835</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>hampton</t>
+          <t>madison</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>south carolina</t>
+          <t>new york</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>176321</v>
+        <v>285878</v>
       </c>
       <c r="D26" t="n">
-        <v>5956</v>
+        <v>5854</v>
       </c>
       <c r="E26" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F26" t="n">
-        <v>45049</v>
+        <v>36053</v>
       </c>
       <c r="G26" t="n">
-        <v>0.13</v>
+        <v>0.003</v>
       </c>
       <c r="H26" t="n">
-        <v>0.156</v>
+        <v>0.015</v>
       </c>
       <c r="I26" t="n">
-        <v>0.025</v>
+        <v>0.043</v>
       </c>
       <c r="J26" t="n">
-        <v>0.148</v>
+        <v>0.107</v>
       </c>
       <c r="K26" t="n">
-        <v>0.542</v>
+        <v>0.8320000000000001</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>horry</t>
+          <t>monroe</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>south carolina</t>
+          <t>new york</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3269915</v>
+        <v>3877888</v>
       </c>
       <c r="D27" t="n">
-        <v>55834</v>
+        <v>100428</v>
       </c>
       <c r="E27" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F27" t="n">
-        <v>45051</v>
+        <v>36055</v>
       </c>
       <c r="G27" t="n">
-        <v>0.08599999999999999</v>
+        <v>0.018</v>
       </c>
       <c r="H27" t="n">
-        <v>0.052</v>
+        <v>0.012</v>
       </c>
       <c r="I27" t="n">
-        <v>0.081</v>
+        <v>0.056</v>
       </c>
       <c r="J27" t="n">
-        <v>0.19</v>
+        <v>0.129</v>
       </c>
       <c r="K27" t="n">
-        <v>0.591</v>
+        <v>0.785</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>jasper</t>
+          <t>montgomery</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>south carolina</t>
+          <t>new york</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>223211</v>
+        <v>166517</v>
       </c>
       <c r="D28" t="n">
-        <v>4863</v>
+        <v>5545</v>
       </c>
       <c r="E28" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F28" t="n">
-        <v>45053</v>
+        <v>36057</v>
       </c>
       <c r="G28" t="n">
-        <v>0.129</v>
+        <v>0.102</v>
       </c>
       <c r="H28" t="n">
-        <v>0.055</v>
+        <v>0.005</v>
       </c>
       <c r="I28" t="n">
-        <v>0.056</v>
+        <v>0.05400000000000001</v>
       </c>
       <c r="J28" t="n">
-        <v>0.201</v>
+        <v>0.09</v>
       </c>
       <c r="K28" t="n">
-        <v>0.5589999999999999</v>
+        <v>0.7490000000000001</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>kershaw</t>
+          <t>nassau</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>south carolina</t>
+          <t>new york</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>634539</v>
+        <v>17735504</v>
       </c>
       <c r="D29" t="n">
-        <v>12549</v>
+        <v>732414</v>
       </c>
       <c r="E29" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F29" t="n">
-        <v>45055</v>
+        <v>36059</v>
       </c>
       <c r="G29" t="n">
-        <v>0.062</v>
+        <v>0.017</v>
       </c>
       <c r="H29" t="n">
-        <v>0.019</v>
+        <v>0.018</v>
       </c>
       <c r="I29" t="n">
-        <v>0.114</v>
+        <v>0.043</v>
       </c>
       <c r="J29" t="n">
-        <v>0.189</v>
+        <v>0.142</v>
       </c>
       <c r="K29" t="n">
-        <v>0.616</v>
+        <v>0.779</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>lancaster</t>
+          <t>new york city</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>south carolina</t>
+          <t>new york</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>741439</v>
+        <v>89861933</v>
       </c>
       <c r="D30" t="n">
-        <v>13761</v>
+        <v>7112382</v>
       </c>
       <c r="E30" s="2" t="n">
         <v>44239</v>
       </c>
-      <c r="F30" t="n">
-        <v>45057</v>
-      </c>
-      <c r="G30" t="n">
-        <v>0.067</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0.068</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0.048</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0.224</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0.594</v>
-      </c>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>laurens</t>
+          <t>niagara</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>south carolina</t>
+          <t>new york</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>551493</v>
+        <v>1070028</v>
       </c>
       <c r="D31" t="n">
-        <v>14771</v>
+        <v>31292</v>
       </c>
       <c r="E31" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F31" t="n">
-        <v>45059</v>
+        <v>36063</v>
       </c>
       <c r="G31" t="n">
-        <v>0.09</v>
+        <v>0.001</v>
       </c>
       <c r="H31" t="n">
-        <v>0.102</v>
+        <v>0.028</v>
       </c>
       <c r="I31" t="n">
-        <v>0.164</v>
+        <v>0.03700000000000001</v>
       </c>
       <c r="J31" t="n">
-        <v>0.214</v>
+        <v>0.204</v>
       </c>
       <c r="K31" t="n">
-        <v>0.43</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>lee</t>
+          <t>oneida</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>south carolina</t>
+          <t>new york</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>207150</v>
+        <v>1438679</v>
       </c>
       <c r="D32" t="n">
-        <v>9097</v>
+        <v>43739</v>
       </c>
       <c r="E32" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F32" t="n">
-        <v>45061</v>
+        <v>36065</v>
       </c>
       <c r="G32" t="n">
-        <v>0.123</v>
+        <v>0.016</v>
       </c>
       <c r="H32" t="n">
-        <v>0.06</v>
+        <v>0.025</v>
       </c>
       <c r="I32" t="n">
-        <v>0.154</v>
+        <v>0.033</v>
       </c>
       <c r="J32" t="n">
-        <v>0.157</v>
+        <v>0.153</v>
       </c>
       <c r="K32" t="n">
-        <v>0.506</v>
+        <v>0.774</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>lexington</t>
+          <t>onondaga</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>south carolina</t>
+          <t>new york</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2482764</v>
+        <v>2557271</v>
       </c>
       <c r="D33" t="n">
-        <v>47336</v>
+        <v>68666</v>
       </c>
       <c r="E33" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F33" t="n">
-        <v>45063</v>
+        <v>36067</v>
       </c>
       <c r="G33" t="n">
-        <v>0.044</v>
+        <v>0.019</v>
       </c>
       <c r="H33" t="n">
-        <v>0.038</v>
+        <v>0.008</v>
       </c>
       <c r="I33" t="n">
-        <v>0.129</v>
+        <v>0.05400000000000001</v>
       </c>
       <c r="J33" t="n">
-        <v>0.214</v>
+        <v>0.163</v>
       </c>
       <c r="K33" t="n">
-        <v>0.5760000000000001</v>
+        <v>0.7559999999999999</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>marion</t>
+          <t>ontario</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>south carolina</t>
+          <t>new york</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>292225</v>
+        <v>366601</v>
       </c>
       <c r="D34" t="n">
-        <v>9310</v>
+        <v>10021</v>
       </c>
       <c r="E34" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F34" t="n">
-        <v>45067</v>
+        <v>36069</v>
       </c>
       <c r="G34" t="n">
-        <v>0.28</v>
+        <v>0.001</v>
       </c>
       <c r="H34" t="n">
-        <v>0.036</v>
+        <v>0.012</v>
       </c>
       <c r="I34" t="n">
-        <v>0.182</v>
+        <v>0.031</v>
       </c>
       <c r="J34" t="n">
-        <v>0.127</v>
+        <v>0.107</v>
       </c>
       <c r="K34" t="n">
-        <v>0.376</v>
+        <v>0.8490000000000001</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>marlboro</t>
+          <t>orange</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>south carolina</t>
+          <t>new york</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>291411</v>
+        <v>4591274</v>
       </c>
       <c r="D35" t="n">
-        <v>3765</v>
+        <v>128209</v>
       </c>
       <c r="E35" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F35" t="n">
-        <v>45069</v>
+        <v>36071</v>
       </c>
       <c r="G35" t="n">
-        <v>0.155</v>
+        <v>0.023</v>
       </c>
       <c r="H35" t="n">
-        <v>0.027</v>
+        <v>0.008</v>
       </c>
       <c r="I35" t="n">
-        <v>0.153</v>
+        <v>0.042</v>
       </c>
       <c r="J35" t="n">
-        <v>0.149</v>
+        <v>0.18</v>
       </c>
       <c r="K35" t="n">
-        <v>0.515</v>
+        <v>0.746</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>mccormick</t>
+          <t>orleans</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>south carolina</t>
+          <t>new york</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>69833</v>
+        <v>182010</v>
       </c>
       <c r="D36" t="n">
-        <v>1665</v>
+        <v>14451</v>
       </c>
       <c r="E36" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F36" t="n">
-        <v>45065</v>
+        <v>36073</v>
       </c>
       <c r="G36" t="n">
-        <v>0.07200000000000001</v>
+        <v>0.001</v>
       </c>
       <c r="H36" t="n">
-        <v>0.115</v>
+        <v>0.033</v>
       </c>
       <c r="I36" t="n">
-        <v>0.106</v>
+        <v>0.059</v>
       </c>
       <c r="J36" t="n">
-        <v>0.202</v>
+        <v>0.213</v>
       </c>
       <c r="K36" t="n">
-        <v>0.505</v>
+        <v>0.6929999999999999</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>newberry</t>
+          <t>oswego</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>south carolina</t>
+          <t>new york</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>414029</v>
+        <v>373634</v>
       </c>
       <c r="D37" t="n">
-        <v>9744</v>
+        <v>4094</v>
       </c>
       <c r="E37" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F37" t="n">
-        <v>45071</v>
+        <v>36075</v>
       </c>
       <c r="G37" t="n">
-        <v>0.078</v>
+        <v>0.017</v>
       </c>
       <c r="H37" t="n">
-        <v>0.128</v>
+        <v>0.003</v>
       </c>
       <c r="I37" t="n">
-        <v>0.062</v>
+        <v>0.094</v>
       </c>
       <c r="J37" t="n">
-        <v>0.202</v>
+        <v>0.119</v>
       </c>
       <c r="K37" t="n">
-        <v>0.529</v>
+        <v>0.7659999999999999</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>oconee</t>
+          <t>otsego</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>south carolina</t>
+          <t>new york</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>670177</v>
+        <v>151235</v>
       </c>
       <c r="D38" t="n">
-        <v>8523</v>
+        <v>2518</v>
       </c>
       <c r="E38" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F38" t="n">
-        <v>45073</v>
+        <v>36077</v>
       </c>
       <c r="G38" t="n">
-        <v>0.142</v>
+        <v>0.032</v>
       </c>
       <c r="H38" t="n">
-        <v>0.061</v>
+        <v>0.065</v>
       </c>
       <c r="I38" t="n">
-        <v>0.103</v>
+        <v>0.027</v>
       </c>
       <c r="J38" t="n">
-        <v>0.221</v>
+        <v>0.096</v>
       </c>
       <c r="K38" t="n">
-        <v>0.472</v>
+        <v>0.779</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>orangeburg</t>
+          <t>putnam</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>south carolina</t>
+          <t>new york</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>867290</v>
+        <v>751225</v>
       </c>
       <c r="D39" t="n">
-        <v>26924</v>
+        <v>19217</v>
       </c>
       <c r="E39" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F39" t="n">
-        <v>45075</v>
+        <v>36079</v>
       </c>
       <c r="G39" t="n">
-        <v>0.135</v>
+        <v>0.003</v>
       </c>
       <c r="H39" t="n">
-        <v>0.056</v>
+        <v>0.018</v>
       </c>
       <c r="I39" t="n">
-        <v>0.111</v>
+        <v>0.022</v>
       </c>
       <c r="J39" t="n">
-        <v>0.169</v>
+        <v>0.105</v>
       </c>
       <c r="K39" t="n">
-        <v>0.529</v>
+        <v>0.852</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>pickens</t>
+          <t>rensselaer</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>south carolina</t>
+          <t>new york</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>1319608</v>
+        <v>563398</v>
       </c>
       <c r="D40" t="n">
-        <v>18674</v>
+        <v>15240</v>
       </c>
       <c r="E40" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F40" t="n">
-        <v>45077</v>
+        <v>36083</v>
       </c>
       <c r="G40" t="n">
-        <v>0.066</v>
+        <v>0.018</v>
       </c>
       <c r="H40" t="n">
-        <v>0.059</v>
+        <v>0.018</v>
       </c>
       <c r="I40" t="n">
-        <v>0.146</v>
+        <v>0.073</v>
       </c>
       <c r="J40" t="n">
-        <v>0.236</v>
+        <v>0.14</v>
       </c>
       <c r="K40" t="n">
-        <v>0.493</v>
+        <v>0.7509999999999999</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>richland</t>
+          <t>rockland</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>south carolina</t>
+          <t>new york</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4217028</v>
+        <v>5639378</v>
       </c>
       <c r="D41" t="n">
-        <v>62925</v>
+        <v>154724</v>
       </c>
       <c r="E41" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F41" t="n">
-        <v>45079</v>
+        <v>36087</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03</v>
+        <v>0.011</v>
       </c>
       <c r="H41" t="n">
-        <v>0.016</v>
+        <v>0.018</v>
       </c>
       <c r="I41" t="n">
-        <v>0.099</v>
+        <v>0.05400000000000001</v>
       </c>
       <c r="J41" t="n">
-        <v>0.235</v>
+        <v>0.195</v>
       </c>
       <c r="K41" t="n">
-        <v>0.62</v>
+        <v>0.722</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>saluda</t>
+          <t>saratoga</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>south carolina</t>
+          <t>new york</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>178968</v>
+        <v>712952</v>
       </c>
       <c r="D42" t="n">
-        <v>4661</v>
+        <v>7085</v>
       </c>
       <c r="E42" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F42" t="n">
-        <v>45081</v>
+        <v>36091</v>
       </c>
       <c r="G42" t="n">
-        <v>0.053</v>
+        <v>0.02</v>
       </c>
       <c r="H42" t="n">
-        <v>0.095</v>
+        <v>0.012</v>
       </c>
       <c r="I42" t="n">
-        <v>0.117</v>
+        <v>0.062</v>
       </c>
       <c r="J42" t="n">
-        <v>0.206</v>
+        <v>0.156</v>
       </c>
       <c r="K42" t="n">
-        <v>0.529</v>
+        <v>0.7509999999999999</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>spartanburg</t>
+          <t>schenectady</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>south carolina</t>
+          <t>new york</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2685439</v>
+        <v>758026</v>
       </c>
       <c r="D43" t="n">
-        <v>59237</v>
+        <v>16748</v>
       </c>
       <c r="E43" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F43" t="n">
-        <v>45083</v>
+        <v>36093</v>
       </c>
       <c r="G43" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.006999999999999999</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.051</v>
+      </c>
+      <c r="J43" t="n">
         <v>0.06</v>
       </c>
-      <c r="H43" t="n">
-        <v>0.091</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0.126</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0.227</v>
-      </c>
       <c r="K43" t="n">
-        <v>0.496</v>
+        <v>0.841</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>sumter</t>
+          <t>schoharie</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>south carolina</t>
+          <t>new york</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>943784</v>
+        <v>67724</v>
       </c>
       <c r="D44" t="n">
-        <v>20792</v>
+        <v>605</v>
       </c>
       <c r="E44" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F44" t="n">
-        <v>45085</v>
+        <v>36095</v>
       </c>
       <c r="G44" t="n">
-        <v>0.128</v>
+        <v>0.006999999999999999</v>
       </c>
       <c r="H44" t="n">
-        <v>0.05400000000000001</v>
+        <v>0.02</v>
       </c>
       <c r="I44" t="n">
-        <v>0.154</v>
+        <v>0.04</v>
       </c>
       <c r="J44" t="n">
-        <v>0.182</v>
+        <v>0.108</v>
       </c>
       <c r="K44" t="n">
-        <v>0.483</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>union</t>
+          <t>schuyler</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>south carolina</t>
+          <t>new york</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>213488</v>
+        <v>56523</v>
       </c>
       <c r="D45" t="n">
-        <v>5043</v>
+        <v>756</v>
       </c>
       <c r="E45" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F45" t="n">
-        <v>45087</v>
+        <v>36097</v>
       </c>
       <c r="G45" t="n">
-        <v>0.14</v>
+        <v>0.01</v>
       </c>
       <c r="H45" t="n">
-        <v>0.02</v>
+        <v>0.009000000000000001</v>
       </c>
       <c r="I45" t="n">
-        <v>0.07400000000000001</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="J45" t="n">
-        <v>0.305</v>
+        <v>0.239</v>
       </c>
       <c r="K45" t="n">
-        <v>0.462</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>williamsburg</t>
+          <t>seneca</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>south carolina</t>
+          <t>new york</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>381112</v>
+        <v>92060</v>
       </c>
       <c r="D46" t="n">
-        <v>11203</v>
+        <v>2631</v>
       </c>
       <c r="E46" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F46" t="n">
-        <v>45089</v>
+        <v>36099</v>
       </c>
       <c r="G46" t="n">
-        <v>0.034</v>
+        <v>0.001</v>
       </c>
       <c r="H46" t="n">
-        <v>0.057</v>
+        <v>0.012</v>
       </c>
       <c r="I46" t="n">
-        <v>0.12</v>
+        <v>0.042</v>
       </c>
       <c r="J46" t="n">
-        <v>0.158</v>
+        <v>0.08199999999999999</v>
       </c>
       <c r="K46" t="n">
-        <v>0.631</v>
+        <v>0.8640000000000001</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>york</t>
+          <t>st. lawrence</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>south carolina</t>
+          <t>new york</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2063525</v>
+        <v>274626</v>
       </c>
       <c r="D47" t="n">
-        <v>24997</v>
+        <v>4317</v>
       </c>
       <c r="E47" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F47" t="n">
-        <v>45091</v>
+        <v>36089</v>
       </c>
       <c r="G47" t="n">
+        <v>0.027</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.029</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.149</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.701</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>steuben</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>new york</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>392159</v>
+      </c>
+      <c r="D48" t="n">
+        <v>17271</v>
+      </c>
+      <c r="E48" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F48" t="n">
+        <v>36101</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.031</v>
+      </c>
+      <c r="I48" t="n">
         <v>0.057</v>
       </c>
-      <c r="H47" t="n">
-        <v>0.07400000000000001</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0.062</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0.204</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0.602</v>
+      <c r="J48" t="n">
+        <v>0.201</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.674</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>suffolk</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>new york</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>18258702</v>
+      </c>
+      <c r="D49" t="n">
+        <v>622801</v>
+      </c>
+      <c r="E49" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F49" t="n">
+        <v>36103</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.053</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.106</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.782</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>sullivan</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>new york</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>591717</v>
+      </c>
+      <c r="D50" t="n">
+        <v>10748</v>
+      </c>
+      <c r="E50" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F50" t="n">
+        <v>36105</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.043</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.8170000000000001</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>tioga</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>new york</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>208421</v>
+      </c>
+      <c r="D51" t="n">
+        <v>8919</v>
+      </c>
+      <c r="E51" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F51" t="n">
+        <v>36107</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.018</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.114</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.8390000000000001</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>tompkins</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>new york</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>247025</v>
+      </c>
+      <c r="D52" t="n">
+        <v>1620</v>
+      </c>
+      <c r="E52" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F52" t="n">
+        <v>36109</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0.046</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.098</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.833</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>ulster</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>new york</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>952182</v>
+      </c>
+      <c r="D53" t="n">
+        <v>26166</v>
+      </c>
+      <c r="E53" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F53" t="n">
+        <v>36111</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.023</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.8179999999999999</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>warren</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>new york</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>190514</v>
+      </c>
+      <c r="D54" t="n">
+        <v>9121</v>
+      </c>
+      <c r="E54" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F54" t="n">
+        <v>36113</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.026</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.018</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0.104</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.723</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>washington</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>new york</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>148069</v>
+      </c>
+      <c r="D55" t="n">
+        <v>4313</v>
+      </c>
+      <c r="E55" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F55" t="n">
+        <v>36115</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.026</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.027</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.138</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0.6729999999999999</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>wayne</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>new york</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>283768</v>
+      </c>
+      <c r="D56" t="n">
+        <v>3705</v>
+      </c>
+      <c r="E56" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F56" t="n">
+        <v>36117</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0.061</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.132</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.789</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>westchester</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>new york</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>14239037</v>
+      </c>
+      <c r="D57" t="n">
+        <v>464171</v>
+      </c>
+      <c r="E57" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F57" t="n">
+        <v>36119</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0.018</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0.044</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0.7979999999999999</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>wyoming</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>new york</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>155470</v>
+      </c>
+      <c r="D58" t="n">
+        <v>3082</v>
+      </c>
+      <c r="E58" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F58" t="n">
+        <v>36121</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.107</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0.861</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>yates</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>new york</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>63397</v>
+      </c>
+      <c r="D59" t="n">
+        <v>2327</v>
+      </c>
+      <c r="E59" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F59" t="n">
+        <v>36123</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0.023</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.08699999999999999</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.884</v>
       </c>
     </row>
   </sheetData>
